--- a/resources/data-imports/Skills/item-skills.xlsx
+++ b/resources/data-imports/Skills/item-skills.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>name</t>
   </si>
@@ -111,6 +111,48 @@
   </si>
   <si>
     <t>As you increase this skill over time you will gain 25% towards Attack, Armour Class, Durability and Focus for a total of 200%</t>
+  </si>
+  <si>
+    <t>Clerics Prayer</t>
+  </si>
+  <si>
+    <t>Pray to your god child, pray for the light to come and heal your wounds. While training this skill, over time you will gain 2% towards your CHR for a total of 10% You will also gain 3% towards healing for an extra 15%</t>
+  </si>
+  <si>
+    <t>Clerics of War</t>
+  </si>
+  <si>
+    <t>Death comes to those who are not prepared. Raise your ac and healing by 5% per level for a total of 15% at max level</t>
+  </si>
+  <si>
+    <t>Durable Priest</t>
+  </si>
+  <si>
+    <t>Stand fast good sir! Over time raise your defense and durability by 4% for a total of 20% at max level.</t>
+  </si>
+  <si>
+    <t>Clerics Wrath</t>
+  </si>
+  <si>
+    <t>Lash out child. Lash out with the words of your god. Raise your focus and damage over time by 5% for a total of 25% at max level.</t>
+  </si>
+  <si>
+    <t>Prophets Grace</t>
+  </si>
+  <si>
+    <t>Stand in the field of battle and protect those around you and heal your wounds. Over time you will gain an additional 40% towards your Attack, 50% towards your Armour Class and 75% towards your healing.</t>
+  </si>
+  <si>
+    <t>Prophets Rage</t>
+  </si>
+  <si>
+    <t>Rage at the enemy but in a godly way. Raise your Attack and CHR by 40% and 100% at max level.</t>
+  </si>
+  <si>
+    <t>Godly Cosmic Awakening</t>
+  </si>
+  <si>
+    <t>Awaken the power of the one true god according to The Churches doctrine.</t>
   </si>
 </sst>
 </file>
@@ -450,7 +492,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,8 +500,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="25.851" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="179.242" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="26.993" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="257.08" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -773,6 +815,194 @@
         <v>5</v>
       </c>
     </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10">
+        <v>0.02</v>
+      </c>
+      <c r="L10">
+        <v>0.03</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11">
+        <v>0.05</v>
+      </c>
+      <c r="L11">
+        <v>0.05</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>300</v>
+      </c>
+      <c r="O11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>0.04</v>
+      </c>
+      <c r="K12">
+        <v>0.04</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>600</v>
+      </c>
+      <c r="O12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13">
+        <v>0.05</v>
+      </c>
+      <c r="J13">
+        <v>0.05</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>1000</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14">
+        <v>0.08</v>
+      </c>
+      <c r="K14">
+        <v>0.1</v>
+      </c>
+      <c r="L14">
+        <v>0.15</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>1000</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15">
+        <v>0.25</v>
+      </c>
+      <c r="J15">
+        <v>0.1</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>1200</v>
+      </c>
+      <c r="O15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16">
+        <v>0.25</v>
+      </c>
+      <c r="G16">
+        <v>0.25</v>
+      </c>
+      <c r="J16">
+        <v>0.25</v>
+      </c>
+      <c r="K16">
+        <v>0.25</v>
+      </c>
+      <c r="L16">
+        <v>0.25</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>1500</v>
+      </c>
+      <c r="O16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data-imports/Skills/item-skills.xlsx
+++ b/resources/data-imports/Skills/item-skills.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -153,6 +153,54 @@
   </si>
   <si>
     <t>Awaken the power of the one true god according to The Churches doctrine.</t>
+  </si>
+  <si>
+    <t>Eye of the eagle</t>
+  </si>
+  <si>
+    <t>With the eye of the eagle you can gain increased Dex by 5% for a total of 25%. Your Attack will raise by 5% for a total of 25%.</t>
+  </si>
+  <si>
+    <t>Sharp Shooters Night Vision</t>
+  </si>
+  <si>
+    <t>Gain an additional 15% Dex at max level, 5% per level. gain an additional 30% damage at max level, 10% per level.</t>
+  </si>
+  <si>
+    <t>Swift Shadows</t>
+  </si>
+  <si>
+    <t>Gain an additional 60% Agility at max level gaining 10% per level. Gai an additional 60% AC at max level, gaining 10% per level.</t>
+  </si>
+  <si>
+    <t>Hunters Prowl</t>
+  </si>
+  <si>
+    <t>Gain an additional 25% damage, gaining 5% per level.</t>
+  </si>
+  <si>
+    <t>Nature and her love</t>
+  </si>
+  <si>
+    <t>Gain an additional 50% healing when using healing spells (Cast, Cast and Attack or Attack and Cast) at max level. Gaining 10% per level. Gain an a additional 25% Dur at max level, gaining 5% per level.</t>
+  </si>
+  <si>
+    <t>Tracking the enemy in the shadows</t>
+  </si>
+  <si>
+    <t>Gain 25% in Defence, healing and health. Healing happens when you use Cast and Attack, Attack and Cast or Cast. You will gain 5% in each of these per level.</t>
+  </si>
+  <si>
+    <t>Defence of the bark</t>
+  </si>
+  <si>
+    <t>Gain 10% in AC and 8% in damage per level for a total of 50% defence and 40% damage at max level.</t>
+  </si>
+  <si>
+    <t>Blindign Arrow of Fate</t>
+  </si>
+  <si>
+    <t>Gain 70% in dex, agi and attack at max level - gaining 7% per level.</t>
   </si>
 </sst>
 </file>
@@ -492,7 +540,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +548,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="26.993" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="257.08" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -514,7 +562,7 @@
     <col min="12" max="12" width="19.995" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="22.28" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="23.423" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -1001,6 +1049,208 @@
       </c>
       <c r="P16">
         <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17">
+        <v>0.05</v>
+      </c>
+      <c r="J17">
+        <v>0.05</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18">
+        <v>0.05</v>
+      </c>
+      <c r="J18">
+        <v>0.1</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>500</v>
+      </c>
+      <c r="O18" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19">
+        <v>0.1</v>
+      </c>
+      <c r="K19">
+        <v>0.1</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <v>1000</v>
+      </c>
+      <c r="O19" t="s">
+        <v>48</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20">
+        <v>0.05</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>300</v>
+      </c>
+      <c r="O20" t="s">
+        <v>48</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21">
+        <v>0.05</v>
+      </c>
+      <c r="L21">
+        <v>0.1</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>600</v>
+      </c>
+      <c r="O21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22">
+        <v>0.05</v>
+      </c>
+      <c r="K22">
+        <v>0.05</v>
+      </c>
+      <c r="L22">
+        <v>0.05</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>1000</v>
+      </c>
+      <c r="O22" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23">
+        <v>0.08</v>
+      </c>
+      <c r="K23">
+        <v>0.1</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>1200</v>
+      </c>
+      <c r="O23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24">
+        <v>0.07</v>
+      </c>
+      <c r="K24">
+        <v>0.07</v>
+      </c>
+      <c r="M24">
+        <v>10</v>
+      </c>
+      <c r="N24">
+        <v>1600</v>
+      </c>
+      <c r="O24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/Skills/item-skills.xlsx
+++ b/resources/data-imports/Skills/item-skills.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -201,6 +201,60 @@
   </si>
   <si>
     <t>Gain 70% in dex, agi and attack at max level - gaining 7% per level.</t>
+  </si>
+  <si>
+    <t>Ice Strength</t>
+  </si>
+  <si>
+    <t>Overtime you will gain 5% in strength for a total of +15% to your strength at level 3 and 8% in durability for a total of +24% durability at level 3. You will also gain 5% in attack and 10% in armour class (defence) for a total of +15% attack and +30% in armour class at level 3.</t>
+  </si>
+  <si>
+    <t>Knights Gaurdian Rose</t>
+  </si>
+  <si>
+    <t>Overtime as you level this, you will gain 8% strength and 10% durability for a total of +24% strengh and +30% durability at level 3. You will also gain 15% armour class (defence) over time for a total of +45% armour class (defence) at level 3.</t>
+  </si>
+  <si>
+    <t>Barbarians Frozen Rage</t>
+  </si>
+  <si>
+    <t>Over time gain +8% strength and +10% attack for a total of +32% strength and +40% attack when level 4.</t>
+  </si>
+  <si>
+    <t>Shadows Strength</t>
+  </si>
+  <si>
+    <t>Gain additional strength over time at 4% for a total of +20% at level 5</t>
+  </si>
+  <si>
+    <t>Whispering Death</t>
+  </si>
+  <si>
+    <t>Gain +3% strength and +5% durability and 8% armour class (defence) for a total of +18% strength, +30% durability and +48% armour class (defence) at level 6</t>
+  </si>
+  <si>
+    <t>Knights Honor</t>
+  </si>
+  <si>
+    <t>Overtime gain +10% armour class (defence) and +10% attack for a total of +40% attack and armour class (defence) at level 4</t>
+  </si>
+  <si>
+    <t>Ice Armour</t>
+  </si>
+  <si>
+    <t>Gain +12% armour class (defence) and +12% durabaility over time for a total of +36% armour class (defence) and +36% durability at level 3</t>
+  </si>
+  <si>
+    <t>Crown of Roses</t>
+  </si>
+  <si>
+    <t>Gain +5% strength, durability and +10% attack over time for a toal of +30% strength, durability and +60% attack at level 6</t>
+  </si>
+  <si>
+    <t>Icey Slash</t>
+  </si>
+  <si>
+    <t>Gain +6% attack over time for a total of +30% attack at level 5</t>
   </si>
 </sst>
 </file>
@@ -540,7 +594,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +603,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="39.99" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="257.08" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="330.205" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -1253,6 +1307,243 @@
         <v>5</v>
       </c>
     </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25">
+        <v>0.05</v>
+      </c>
+      <c r="E25">
+        <v>0.08</v>
+      </c>
+      <c r="J25">
+        <v>0.05</v>
+      </c>
+      <c r="K25">
+        <v>0.1</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
+        <v>0.08</v>
+      </c>
+      <c r="E26">
+        <v>0.1</v>
+      </c>
+      <c r="K26">
+        <v>0.15</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>500</v>
+      </c>
+      <c r="O26" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27">
+        <v>0.08</v>
+      </c>
+      <c r="J27">
+        <v>0.1</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>1000</v>
+      </c>
+      <c r="O27" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28">
+        <v>0.04</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28">
+        <v>600</v>
+      </c>
+      <c r="O28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29">
+        <v>0.3</v>
+      </c>
+      <c r="E29">
+        <v>0.5</v>
+      </c>
+      <c r="K29">
+        <v>0.08</v>
+      </c>
+      <c r="M29">
+        <v>6</v>
+      </c>
+      <c r="N29">
+        <v>1000</v>
+      </c>
+      <c r="O29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="J30">
+        <v>0.1</v>
+      </c>
+      <c r="K30">
+        <v>0.1</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>800</v>
+      </c>
+      <c r="O30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31">
+        <v>0.12</v>
+      </c>
+      <c r="K31">
+        <v>0.12</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>1000</v>
+      </c>
+      <c r="O31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32">
+        <v>0.05</v>
+      </c>
+      <c r="E32">
+        <v>0.05</v>
+      </c>
+      <c r="J32">
+        <v>0.1</v>
+      </c>
+      <c r="M32">
+        <v>6</v>
+      </c>
+      <c r="N32">
+        <v>1200</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="J33">
+        <v>0.06</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
+      <c r="N33">
+        <v>1000</v>
+      </c>
+      <c r="O33" t="s">
+        <v>74</v>
+      </c>
+      <c r="P33">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data-imports/Skills/item-skills.xlsx
+++ b/resources/data-imports/Skills/item-skills.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>name</t>
   </si>
@@ -197,12 +197,15 @@
     <t>Gain 10% in AC and 8% in damage per level for a total of 50% defence and 40% damage at max level.</t>
   </si>
   <si>
+    <t>Blinding Arrow of Fate</t>
+  </si>
+  <si>
+    <t>Gain 70% in dex, agi and attack at max level - gaining 7% per level.</t>
+  </si>
+  <si>
     <t>Blindign Arrow of Fate</t>
   </si>
   <si>
-    <t>Gain 70% in dex, agi and attack at max level - gaining 7% per level.</t>
-  </si>
-  <si>
     <t>Ice Strength</t>
   </si>
   <si>
@@ -255,6 +258,54 @@
   </si>
   <si>
     <t>Gain +6% attack over time for a total of +30% attack at level 5</t>
+  </si>
+  <si>
+    <t>Twisted Blood Lust</t>
+  </si>
+  <si>
+    <t>As you level this skill over time, you will get 5% towards your dur for a total of 25% dur.</t>
+  </si>
+  <si>
+    <t>Delusional Bite</t>
+  </si>
+  <si>
+    <t>As you level this skill you will increase your dur by 8% over time for a total of 40%. You will also increase your base attack by 4% for a total of 20%</t>
+  </si>
+  <si>
+    <t>Cover of night</t>
+  </si>
+  <si>
+    <t>As you level this skill you will gain 5% over time for a toal of 30% in your defence. You will also gain 2% over time for a total of 12% in your attack</t>
+  </si>
+  <si>
+    <t>Jesters Blood</t>
+  </si>
+  <si>
+    <t>As you level this skill you will gain 8% for a total of 24% in your DUR. You will also gain 2% in your attack for a total of 6%.</t>
+  </si>
+  <si>
+    <t>Soldier of the moon</t>
+  </si>
+  <si>
+    <t>As you level this skill you will increase your attack by 5% for a total of 25%, your defence by 3% for a total of 15% and your DUR by 6% for a total of 30%.</t>
+  </si>
+  <si>
+    <t>Defensive Shadows</t>
+  </si>
+  <si>
+    <t>As you train this skill you will gain 5% towards your AC (defence) for a total of 30% at max level.</t>
+  </si>
+  <si>
+    <t>Blood Pact With Death</t>
+  </si>
+  <si>
+    <t>As you level this skill over time you will gain 5% towards your DUR for a total of 50%, 8% towards your attack for a total of 80%, 5% towards your AC (Defence) for a total of 50% and 2% towards your healing for a total of 20%</t>
+  </si>
+  <si>
+    <t>Infected Bite</t>
+  </si>
+  <si>
+    <t>As you level this skill your Dur will increase by 10% fr a total of 40%, your attack will incrwase by 3% for a total of 12%</t>
   </si>
 </sst>
 </file>
@@ -594,7 +645,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1312,77 +1363,77 @@
         <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25">
-        <v>0.05</v>
-      </c>
-      <c r="E25">
-        <v>0.08</v>
+        <v>61</v>
       </c>
       <c r="J25">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="K25">
-        <v>0.1</v>
+        <v>0.07</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N25">
-        <v>250</v>
+        <v>1600</v>
+      </c>
+      <c r="O25" t="s">
+        <v>58</v>
+      </c>
+      <c r="P25">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
         <v>64</v>
       </c>
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
       <c r="C26">
+        <v>0.05</v>
+      </c>
+      <c r="E26">
         <v>0.08</v>
       </c>
-      <c r="E26">
+      <c r="J26">
+        <v>0.05</v>
+      </c>
+      <c r="K26">
         <v>0.1</v>
       </c>
-      <c r="K26">
-        <v>0.15</v>
-      </c>
       <c r="M26">
         <v>3</v>
       </c>
       <c r="N26">
-        <v>500</v>
-      </c>
-      <c r="O26" t="s">
-        <v>62</v>
-      </c>
-      <c r="P26">
-        <v>3</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
         <v>66</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
       </c>
       <c r="C27">
         <v>0.08</v>
       </c>
-      <c r="J27">
+      <c r="E27">
         <v>0.1</v>
       </c>
+      <c r="K27">
+        <v>0.15</v>
+      </c>
       <c r="M27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="O27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P27">
         <v>3</v>
@@ -1390,103 +1441,103 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
         <v>68</v>
       </c>
-      <c r="B28" t="s">
-        <v>69</v>
-      </c>
       <c r="C28">
-        <v>0.04</v>
+        <v>0.08</v>
+      </c>
+      <c r="J28">
+        <v>0.1</v>
       </c>
       <c r="M28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
         <v>70</v>
       </c>
-      <c r="B29" t="s">
-        <v>71</v>
-      </c>
       <c r="C29">
-        <v>0.3</v>
-      </c>
-      <c r="E29">
-        <v>0.5</v>
-      </c>
-      <c r="K29">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="M29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N29">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="O29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="P29">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
         <v>72</v>
       </c>
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-      <c r="J30">
-        <v>0.1</v>
+      <c r="C30">
+        <v>0.3</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
       </c>
       <c r="K30">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="M30">
+        <v>6</v>
+      </c>
+      <c r="N30">
+        <v>1000</v>
+      </c>
+      <c r="O30" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30">
         <v>4</v>
-      </c>
-      <c r="N30">
-        <v>800</v>
-      </c>
-      <c r="O30" t="s">
-        <v>64</v>
-      </c>
-      <c r="P30">
-        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
         <v>74</v>
       </c>
-      <c r="B31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31">
-        <v>0.12</v>
+      <c r="J31">
+        <v>0.1</v>
       </c>
       <c r="K31">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N31">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P31">
         <v>3</v>
@@ -1494,28 +1545,25 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
         <v>76</v>
       </c>
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32">
-        <v>0.05</v>
-      </c>
       <c r="E32">
-        <v>0.05</v>
-      </c>
-      <c r="J32">
-        <v>0.1</v>
+        <v>0.12</v>
+      </c>
+      <c r="K32">
+        <v>0.12</v>
       </c>
       <c r="M32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N32">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="O32" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P32">
         <v>3</v>
@@ -1523,25 +1571,259 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
         <v>78</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33">
+        <v>0.05</v>
+      </c>
+      <c r="E33">
+        <v>0.05</v>
+      </c>
+      <c r="J33">
+        <v>0.1</v>
+      </c>
+      <c r="M33">
+        <v>6</v>
+      </c>
+      <c r="N33">
+        <v>1200</v>
+      </c>
+      <c r="O33" t="s">
+        <v>73</v>
+      </c>
+      <c r="P33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
         <v>79</v>
       </c>
-      <c r="J33">
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="J34">
         <v>0.06</v>
       </c>
-      <c r="M33">
-        <v>5</v>
-      </c>
-      <c r="N33">
+      <c r="M34">
+        <v>5</v>
+      </c>
+      <c r="N34">
         <v>1000</v>
       </c>
-      <c r="O33" t="s">
-        <v>74</v>
-      </c>
-      <c r="P33">
-        <v>3</v>
+      <c r="O34" t="s">
+        <v>75</v>
+      </c>
+      <c r="P34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35">
+        <v>0.05</v>
+      </c>
+      <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="N35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36">
+        <v>0.08</v>
+      </c>
+      <c r="J36">
+        <v>0.04</v>
+      </c>
+      <c r="M36">
+        <v>5</v>
+      </c>
+      <c r="N36">
+        <v>500</v>
+      </c>
+      <c r="O36" t="s">
+        <v>81</v>
+      </c>
+      <c r="P36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="J37">
+        <v>0.02</v>
+      </c>
+      <c r="K37">
+        <v>0.05</v>
+      </c>
+      <c r="M37">
+        <v>6</v>
+      </c>
+      <c r="N37">
+        <v>750</v>
+      </c>
+      <c r="O37" t="s">
+        <v>83</v>
+      </c>
+      <c r="P37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38">
+        <v>0.08</v>
+      </c>
+      <c r="J38">
+        <v>0.02</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>450</v>
+      </c>
+      <c r="O38" t="s">
+        <v>83</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39">
+        <v>0.06</v>
+      </c>
+      <c r="J39">
+        <v>0.05</v>
+      </c>
+      <c r="K39">
+        <v>0.03</v>
+      </c>
+      <c r="M39">
+        <v>5</v>
+      </c>
+      <c r="N39">
+        <v>800</v>
+      </c>
+      <c r="O39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="K40">
+        <v>0.05</v>
+      </c>
+      <c r="M40">
+        <v>6</v>
+      </c>
+      <c r="N40">
+        <v>1000</v>
+      </c>
+      <c r="O40" t="s">
+        <v>85</v>
+      </c>
+      <c r="P40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41">
+        <v>0.05</v>
+      </c>
+      <c r="J41">
+        <v>0.08</v>
+      </c>
+      <c r="K41">
+        <v>0.05</v>
+      </c>
+      <c r="L41">
+        <v>0.02</v>
+      </c>
+      <c r="M41">
+        <v>10</v>
+      </c>
+      <c r="N41">
+        <v>1500</v>
+      </c>
+      <c r="O41" t="s">
+        <v>89</v>
+      </c>
+      <c r="P41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42">
+        <v>0.1</v>
+      </c>
+      <c r="J42">
+        <v>0.03</v>
+      </c>
+      <c r="M42">
+        <v>4</v>
+      </c>
+      <c r="N42">
+        <v>850</v>
+      </c>
+      <c r="O42" t="s">
+        <v>93</v>
+      </c>
+      <c r="P42">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/Skills/item-skills.xlsx
+++ b/resources/data-imports/Skills/item-skills.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>name</t>
   </si>
@@ -306,6 +306,54 @@
   </si>
   <si>
     <t>As you level this skill your Dur will increase by 10% fr a total of 40%, your attack will incrwase by 3% for a total of 12%</t>
+  </si>
+  <si>
+    <t>Enraged Muscles</t>
+  </si>
+  <si>
+    <t>You feel the muscles in your body contracting, your mind becomes eccentric with rage. Grow your strength by 3% for a maximum of 15% bonus.</t>
+  </si>
+  <si>
+    <t>Crafty Survival</t>
+  </si>
+  <si>
+    <t>Craft your own armour, craft your own weapons, the longer you survive the better. Increase Base Attack, Ac (Defence) and DUR by 4% for a maximum of 20%</t>
+  </si>
+  <si>
+    <t>Hammer Crush</t>
+  </si>
+  <si>
+    <t>Feel the rage build as you crush your enemy. Gain 5% strength and 10% Base Attack for a max of 15% strength and 30% Base Attack.</t>
+  </si>
+  <si>
+    <t>Shield of Purgatory</t>
+  </si>
+  <si>
+    <t>Conjure a magical shield from the depths of purgatory to give your self more defence! Increase the Base AC (defence bonus) by 6% for a total of 30%</t>
+  </si>
+  <si>
+    <t>Spirited Determination</t>
+  </si>
+  <si>
+    <t>Become determined to survive at all costs! Incrase Strength, Dexterity and Durability by 10% for a maximum of 50% while increasing Base Attack bonus by 6% for a total of 30%</t>
+  </si>
+  <si>
+    <t>Blacksmiths Rage</t>
+  </si>
+  <si>
+    <t>Rage against the enemy, smasdhing the earth! Increase your Base attack by 12% for a max of 60% and your strength by 15% for a total of 75%</t>
+  </si>
+  <si>
+    <t>A healthy body and mind</t>
+  </si>
+  <si>
+    <t>Increase your health and your strength to survive longer child! Increases strength by 12% for a total of 60%. Increases your base Healing by 2% for a total of 10% and increase your Base Ac (defence bonus) by 10% for a total of 50%</t>
+  </si>
+  <si>
+    <t>Last Stand</t>
+  </si>
+  <si>
+    <t>Take your last stand child! Incrwases Strength and Dur by 10% for a total of 60%. Increase your Base Attack by 12% for a total of 72%</t>
   </si>
 </sst>
 </file>
@@ -645,7 +693,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1826,6 +1874,217 @@
         <v>5</v>
       </c>
     </row>
+    <row r="43" spans="1:16">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43">
+        <v>0.03</v>
+      </c>
+      <c r="M43">
+        <v>5</v>
+      </c>
+      <c r="N43">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44">
+        <v>0.04</v>
+      </c>
+      <c r="J44">
+        <v>0.04</v>
+      </c>
+      <c r="K44">
+        <v>0.04</v>
+      </c>
+      <c r="M44">
+        <v>5</v>
+      </c>
+      <c r="N44">
+        <v>350</v>
+      </c>
+      <c r="O44" t="s">
+        <v>97</v>
+      </c>
+      <c r="P44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45">
+        <v>0.05</v>
+      </c>
+      <c r="J45">
+        <v>0.1</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45">
+        <v>600</v>
+      </c>
+      <c r="O45" t="s">
+        <v>97</v>
+      </c>
+      <c r="P45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="K46">
+        <v>0.05</v>
+      </c>
+      <c r="M46">
+        <v>6</v>
+      </c>
+      <c r="N46">
+        <v>800</v>
+      </c>
+      <c r="O46" t="s">
+        <v>99</v>
+      </c>
+      <c r="P46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47">
+        <v>0.1</v>
+      </c>
+      <c r="D47">
+        <v>0.1</v>
+      </c>
+      <c r="E47">
+        <v>0.1</v>
+      </c>
+      <c r="J47">
+        <v>0.06</v>
+      </c>
+      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="N47">
+        <v>1200</v>
+      </c>
+      <c r="O47" t="s">
+        <v>101</v>
+      </c>
+      <c r="P47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48">
+        <v>0.15</v>
+      </c>
+      <c r="J48">
+        <v>0.12</v>
+      </c>
+      <c r="M48">
+        <v>5</v>
+      </c>
+      <c r="N48">
+        <v>1200</v>
+      </c>
+      <c r="O48" t="s">
+        <v>103</v>
+      </c>
+      <c r="P48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49">
+        <v>0.12</v>
+      </c>
+      <c r="K49">
+        <v>0.1</v>
+      </c>
+      <c r="L49">
+        <v>0.02</v>
+      </c>
+      <c r="M49">
+        <v>5</v>
+      </c>
+      <c r="N49">
+        <v>1000</v>
+      </c>
+      <c r="O49" t="s">
+        <v>97</v>
+      </c>
+      <c r="P49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50">
+        <v>0.1</v>
+      </c>
+      <c r="E50">
+        <v>0.1</v>
+      </c>
+      <c r="J50">
+        <v>0.12</v>
+      </c>
+      <c r="M50">
+        <v>6</v>
+      </c>
+      <c r="N50">
+        <v>1500</v>
+      </c>
+      <c r="O50" t="s">
+        <v>109</v>
+      </c>
+      <c r="P50">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
